--- a/excelPourBD/XLSX/t_former.xlsx
+++ b/excelPourBD/XLSX/t_former.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projet\P_GesProj2\Projet CatalogueCours\Depot GitHub\col-go-lo\excelPourBD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projet\P_GesProj2\Projet CatalogueCours\Depot GitHub\col-go-lo\excelPourBD\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
   <si>
     <t>idFormer</t>
   </si>
@@ -231,6 +231,12 @@
   </si>
   <si>
     <t>Rte. de Chavannes 143, 1007 Lausanne</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
 </sst>
 </file>
@@ -563,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +587,7 @@
     <col min="8" max="8" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -606,8 +612,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -632,8 +641,11 @@
       <c r="H2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -658,8 +670,11 @@
       <c r="H3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -684,8 +699,11 @@
       <c r="H4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -710,8 +728,11 @@
       <c r="H5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
@@ -736,8 +757,11 @@
       <c r="H6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -762,8 +786,11 @@
       <c r="H7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -788,8 +815,11 @@
       <c r="H8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -814,8 +844,11 @@
       <c r="H9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -840,8 +873,11 @@
       <c r="H10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -866,21 +902,9 @@
       <c r="H11" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="2"/>
+      <c r="I11" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
